--- a/biology/Zoologie/Garypus_beauvoisii/Garypus_beauvoisii.xlsx
+++ b/biology/Zoologie/Garypus_beauvoisii/Garypus_beauvoisii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Garypus beauvoisii est une espèce de pseudoscorpions de la famille des Garypidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Égypte, en Libye, en Tunisie, en Algérie, au Portugal, en Espagne, en France, en Italie, à Malte, en Croatie, en Bosnie-Herzégovine, en Grèce, à Chypre et en Israël[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Égypte, en Libye, en Tunisie, en Algérie, au Portugal, en Espagne, en France, en Italie, à Malte, en Croatie, en Bosnie-Herzégovine, en Grèce, à Chypre et en Israël.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Garypus beauvoisii mesure de 6 à 7 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Garypus beauvoisii mesure de 6 à 7 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Ambroise Marie François Joseph Palisot de Beauvois[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Ambroise Marie François Joseph Palisot de Beauvois.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Audouin, 1826 : Explication sommaire des planches d'arachnides de l'Égypte et de la Syrie publiées par J. C. Savigny, membre de l'Institut; offrant un exposé des caractères naturels des genres avec la distinction des espèces. in Description de l'Égypte, ou Recueil des observations et des recherches qui ont été faites en Égypte pendant l'expédition de l'armée française. Histoire Naturelle, tome 1, partie 4, p. 99-186.</t>
         </is>
